--- a/i18n/excel_from_translation/nl.wur.IWMPRAISE.xlsx
+++ b/i18n/excel_from_translation/nl.wur.IWMPRAISE.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26216"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="84" documentId="11_D9BDB5EE733B97F0BD6FEC1BDBA37B71BEA86271" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0BAED40-9042-4F24-808C-3FCD8745FB4D}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="11_D9BDB5EE733B97F0BD6FEC1BDBA37B71BEA86271" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{016DAD04-2B99-4BA8-8998-3CDB90319DBA}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t>KEY</t>
   </si>
@@ -97,7 +97,16 @@
     <t>IWMPRAISE Integrerat verktyg för ogräshantering</t>
   </si>
   <si>
+    <t>IWMPRAISE Piktžolių Kontrolės Įrankis</t>
+  </si>
+  <si>
+    <t>IWMPRAISE Outil de gestion intégrée de la flore adventice</t>
+  </si>
+  <si>
     <t>Strumento di gestione integrata delle erbe infestanti IWMPRAISE</t>
+  </si>
+  <si>
+    <t>IWMPRAISE Εργαλείο ολοκληρωμένης διαχείρισης ζιζανίων</t>
   </si>
   <si>
     <t>nl.wur.IWMPRAISE.1_0.models.IWMPRAISE_Tool.description</t>
@@ -156,6 +165,79 @@
 </t>
   </si>
   <si>
+    <r>
+      <t>PIKTŽOLĖS: Daugiametės ir vienmetės piktžolės gali tiesiogiai ir netiesiogiai pakenkti įvairiems lauko augalams. SPRENDIMAS: Integruotos piktžolių kontrolės taktikos gali paveikti vieną ar daugiau piktžolių gyvavimo ciklo ašių. Jos gali užkirsti kelią daigų iš dirvožemio sėklų banko sudygimui (1 ašis), sumažinti esamų piktžolių poveikį pasėliams (2 ašis) arba sumažinti piktžolių sėklų ar pumpurų grįžimą į dirvožemį (3 ašis).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>IWMPRAISE ĮRANKIS: Šis įrankis padeda naudotojams nustatyti ir suprasti turimas IKOK priemones ir strategiją daugiametėms ir vienmetėms piktžolėms siauraeiliuose, plačiaeiliuose ir daugiamečiuose pasėliuose kontroliuoti. Naudotojai gali pasirinkti ir (arba) panaikinti parinkčių reikšmes, kad nustatytų jiems tinkamiausią metodą. Šiuo metu ši priemonė prieinama tik anglų kalba.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ŠALTINIS: IWMPRAISE Įrankis buvo sukurtas įgyvendinant 2017-2022 m. ES finansuojamą programos "Horizontas 2020" projektą IWMPRAISE (727321). Jis skirtas naudoti visoje Europoje.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>NUORODOS: Kudsk et al (2020) Outlooks on Pest Management, 31, 152-159, https://doi.org/10.1564/v31_aug_02</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">LE BIOAGRESSEUR : Les infestations de mauvaises herbes vivaces et annuelles peuvent causer des dommages directs et indirects à un large éventail de cultures. 
+LA DÉCISION : Les tactiques de gestion intégrée des mauvaises herbes peuvent affecter un ou plusieurs processus du cycle de vie des mauvaises herbes. Elles peuvent empêcher l'établissement de plantules à partir de la banque de graines (axe 1), réduire l'impact des mauvaises herbes établies sur la culture (axe 2), ou réduire le retour au sol des graines/bourgeons de mauvaises herbes (axe 3).
+L'OUTIL IWMPRAISE : Cet outil aide les utilisateurs à identifier et à comprendre les outils et tactiques IPM disponibles pour gérer les mauvaises herbes vivaces et annuelles. Les utilisateurs peuvent sélectionner/désélectionner des options pour identifier la stratégie la plus adaptée. Cet outil est actuellement disponible en anglais seulement. 
+SOURCE : L'outil IWMPRAISE TOOL a été développé dans le cadre du projet Horizon 2020 IWMPRAISE (727321), 2017-2022, financé par l'UE. Il est conçu pour être utilisé dans toute l'Europe.  
+RÉFÉRENCE : Kudsk et al (2020) Outlooks on Pest Management, 31, 152-159, 
+https://doi.org/10.1564/v31_aug_02 </t>
+  </si>
+  <si>
     <t xml:space="preserve">L'INFESTANTE: le infestazioni di erbe infestanti perenni e annuali possono causare danni diretti e indiretti a un'ampia gamma di colture all'aperto. 
 LA DECISIONE: Le tattiche di gestione integrata delle infestanti possono influire su uno o più assi del ciclo di vita delle infestanti. Possono impedire l'insediamento di piantine dalla banca dei semi (asse 1), ridurre l'impatto che le infestanti insediate hanno sulla coltura (asse 2) o ridurre il ritorno di semi/boccioli di infestanti nel terreno (asse 3).
 Lo strumento IWMPRAISE: questo strumento aiuta gli utenti a identificare e comprendere gli strumenti e le tattiche IPM disponibili per gestire le infestanti perenni e annuali nelle colture a file strette, a file larghe e perenni. Gli utenti possono selezionare/deselezionare le opzioni per identificare l'approccio migliore per loro. Questo strumento è attualmente disponibile solo in inglese. 
@@ -164,6 +246,13 @@
  </t>
   </si>
   <si>
+    <t xml:space="preserve"> Ο Εχθρός: Οι μολύνσεις από πολυετή και ετήσια ζιζάνια μπορούν να προκαλέσουν άμεσες και έμμεσες ζημιές σε ένα ευρύ φάσμα υπαίθριων καλλιεργειών. 
+Η ΑΠΟΦΑΣΗ: Οι τακτικές ολοκληρωμένης διαχείρισης ζιζανίων μπορούν να επηρεάσουν έναν ή περισσότερους άξονες στον κύκλο ζωής των ζιζανίων. Μπορούν να αποτρέψουν την εγκατάσταση σπορόφυτων από την τράπεζα σπόρων (άξονας 1), να μειώσουν τις επιπτώσεις που έχουν τα εγκατεστημένα ζιζάνια στην καλλιέργεια (άξονας 2) ή να μειώσουν την επιστροφή σπόρων/βλαστών ζιζανίων στο έδαφος (άξονας 3).
+ΤΟ ΕΡΓΑΛΕΙΟ IWMPRAISE: Το εργαλείο αυτό υποστηρίζει τους χρήστες στον εντοπισμό και την κατανόηση των διαθέσιμων εργαλείων και τακτικών IPM για τη διαχείριση πολυετών και ετήσιων ζιζανίων σε στενόμακρες, πλατύμακρες και πολυετείς καλλιέργειες. Οι χρήστες μπορούν να επιλέξουν/αποεπιλέξουν επιλογές για να προσδιορίσουν την καλύτερη προσέγγιση για αυτούς. Αυτό το εργαλείο είναι προς το παρόν διαθέσιμο μόνο στην αγγλική γλώσσα. 
+ΠΗΓΗ: Το εργαλείο IWMPRAISE TOOL αναπτύχθηκε στο πλαίσιο του χρηματοδοτούμενου από την ΕΕ προγράμματος Horizon 2020 IWMPRAISE (727321), 2017-2022. Έχει σχεδιαστεί για χρήση σε ολόκληρη την Ευρώπη.  
+ΑΝΑΦΟΡΑ: Kudsk et al (2020) Outlooks on Pest Management, 31, 152-159, https://doi.org/10.1564/v31_aug_02.</t>
+  </si>
+  <si>
     <t>nl.wur.IWMPRAISE.1_0.models.IWMPRAISE_Tool.name</t>
   </si>
   <si>
@@ -191,9 +280,15 @@
     <t>IWMPRAISE rikkakasvien hallintatyökalu</t>
   </si>
   <si>
+    <t>IWMPRAISE Outil de gestion des mauvaises herbes</t>
+  </si>
+  <si>
     <t>Strumento di gestione delle erbe infestanti IWMPRAISE</t>
   </si>
   <si>
+    <t>IWMPRAISE Εργαλείο διαχείρισης ζιζανίων</t>
+  </si>
+  <si>
     <t>nl.wur.IWMPRAISE.1_0.models.IWMPRAISE_Tool.purpose</t>
   </si>
   <si>
@@ -221,14 +316,23 @@
     <t>Online-työkalu sopivien hallintamenetelmien tunnistamiseksi yksi- ja monivuotisille rikkakasveille eri tuotantokasveilla.</t>
   </si>
   <si>
+    <t>Internetinė strateginė priemonė, skirta išsirinkti tinkamas vienamečių ir daugiamečių piktžolių kontrolės praktikas siauraeilių, plačiaeilių ir daugiamečių augalų pasėliuose.</t>
+  </si>
+  <si>
+    <t>Un outil stratégique en ligne pour identifier les pratiques de gestion appropriées pour les mauvaises herbes annuelles et vivaces.</t>
+  </si>
+  <si>
     <t>Uno strumento strategico online per identificare le pratiche di gestione adeguate per le infestanti annuali e perenni nelle colture a file strette, a file larghe e perenni.</t>
+  </si>
+  <si>
+    <t>Ένα διαδικτυακό στρατηγικό εργαλείο για τον εντοπισμό κατάλληλων πρακτικών διαχείρισης ετήσιων και πολυετών ζιζανίων σε στενές, πλατιές και πολυετείς καλλιέργειες.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +368,20 @@
       <name val="Times New Roman"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -325,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -352,9 +470,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -693,7 +819,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -767,8 +893,17 @@
       <c r="H2" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="J2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="L2" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -781,7 +916,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -790,6 +925,9 @@
     <col min="4" max="4" width="9.140625" style="8"/>
     <col min="5" max="5" width="9.140625" style="3"/>
     <col min="8" max="8" width="9.140625" style="3"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -842,100 +980,127 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="81.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="15.75">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>41</v>
+        <v>47</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="15.75">
       <c r="A4" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>51</v>
+        <v>59</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -944,28 +1109,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f0f33890-2782-435d-9951-89eaf76ec08c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="49b2234f-12e0-4bdf-b627-3d078507bec9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CE6F8D6BD046F944849C04732F5FA09C" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="985394bff33c465c59c1b6ffc7f2b18c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f0f33890-2782-435d-9951-89eaf76ec08c" xmlns:ns3="49b2234f-12e0-4bdf-b627-3d078507bec9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e6e7ee76b1c64bbcff38e34ea77f7800" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1225,14 +1368,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f0f33890-2782-435d-9951-89eaf76ec08c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="49b2234f-12e0-4bdf-b627-3d078507bec9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49C067F0-5964-4379-B868-E7192BE370E5}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8BCA8E3-4B12-486A-A4EF-6E10E1458313}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5425377F-8B35-4637-B2E7-E8314CC4E18E}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49C067F0-5964-4379-B868-E7192BE370E5}"/>
 </file>